--- a/MyMonsterts/Assets/ExcelData/ExpData.xlsx
+++ b/MyMonsterts/Assets/ExcelData/ExpData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saneyuki/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SaneHardDisk/Projects/MyMonster-1/MyMonsterts/Assets/ExcelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63413E3-9396-B146-9591-EF727B4A3B8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCA8301-DCE0-1749-B63C-B70A495F44AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25200" windowHeight="13540" xr2:uid="{19E6D701-71AB-1F42-93E9-98E381554108}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
